--- a/biology/Botanique/Typha_domingensis/Typha_domingensis.xlsx
+++ b/biology/Botanique/Typha_domingensis/Typha_domingensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Typha domingensis est une espèce de plante vivace monocotylédone du genre Typha et de la famille des Typhaceae. Elle croît dans les zones tempérées de l'hémisphère nord. Elle fleurit au printemps et donne des fruits au milieu de l'automne.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Typha domingensis est une plante aquatique, herbacée, rhizomateuse et vivace qui peut atteindre 2,5 mètres de hauteur.
 </t>
@@ -542,12 +556,14 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Synonymes:
 Typha angustata Bory &amp; Chaubard
 Typha angustifolia L. var. domingensis Pers.
-Typha tenuifolia Kunth[1]</t>
+Typha tenuifolia Kunth</t>
         </is>
       </c>
     </row>
@@ -575,10 +591,12 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Typha domingensis croît au bord des cours d'eau à débit lent, des marais, des lagunes, des lacs et des étangs d'eau douce, ainsi que des canaux, et dans l'écosystème des mangroves, jusqu'à mille mètres d'altitude et parfois au-delà.
-Elle peut se comporter comme une plante invasive et adventice. C'est notamment le cas dans la vallée du fleuve Sénégal où on essaye de s'en débarrasser en en faisant du charbon[2]. C'est le cas également en Nouvelle-Calédonie : le Code de l'environnement de la Province Sud interdit l’introduction dans la nature de cette espèce ainsi que sa production, son transport, son utilisation, son colportage, sa cession, sa mise en vente, sa vente ou son achat[3].
+Elle peut se comporter comme une plante invasive et adventice. C'est notamment le cas dans la vallée du fleuve Sénégal où on essaye de s'en débarrasser en en faisant du charbon. C'est le cas également en Nouvelle-Calédonie : le Code de l'environnement de la Province Sud interdit l’introduction dans la nature de cette espèce ainsi que sa production, son transport, son utilisation, son colportage, sa cession, sa mise en vente, sa vente ou son achat.
 </t>
         </is>
       </c>
